--- a/correlation/data/股债历史价格.xlsx
+++ b/correlation/data/股债历史价格.xlsx
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3544"/>
+  <dimension ref="A1:C3554"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A3530" workbookViewId="0">
+      <selection activeCell="C3541" sqref="C3541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -421,7 +421,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <f>[1]!TDays("2004-01-01","2018-07-31","cols=1;rows=3543")</f>
+        <f>[1]!TDays("2004-01-01","2018-08-14","cols=1;rows=3553")</f>
         <v>37988</v>
       </c>
       <c r="B2">
@@ -46477,6 +46477,136 @@
       <c r="C3544">
         <f>[1]!s_dq_close($C$1,A3544)</f>
         <v>98.597200000000001</v>
+      </c>
+    </row>
+    <row r="3545" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3545" s="1">
+        <v>43313</v>
+      </c>
+      <c r="B3545">
+        <f>[1]!s_dq_close($B$1,A3545)</f>
+        <v>3803.2568000000001</v>
+      </c>
+      <c r="C3545">
+        <f>[1]!s_dq_close($C$1,A3545)</f>
+        <v>98.669399999999996</v>
+      </c>
+    </row>
+    <row r="3546" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3546" s="1">
+        <v>43314</v>
+      </c>
+      <c r="B3546">
+        <f>[1]!s_dq_close($B$1,A3546)</f>
+        <v>3718.2966999999999</v>
+      </c>
+      <c r="C3546">
+        <f>[1]!s_dq_close($C$1,A3546)</f>
+        <v>98.725200000000001</v>
+      </c>
+    </row>
+    <row r="3547" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3547" s="1">
+        <v>43315</v>
+      </c>
+      <c r="B3547">
+        <f>[1]!s_dq_close($B$1,A3547)</f>
+        <v>3665.3598000000002</v>
+      </c>
+      <c r="C3547">
+        <f>[1]!s_dq_close($C$1,A3547)</f>
+        <v>98.816800000000001</v>
+      </c>
+    </row>
+    <row r="3548" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3548" s="1">
+        <v>43318</v>
+      </c>
+      <c r="B3548">
+        <f>[1]!s_dq_close($B$1,A3548)</f>
+        <v>3605.5605999999998</v>
+      </c>
+      <c r="C3548">
+        <f>[1]!s_dq_close($C$1,A3548)</f>
+        <v>98.896799999999999</v>
+      </c>
+    </row>
+    <row r="3549" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3549" s="1">
+        <v>43319</v>
+      </c>
+      <c r="B3549">
+        <f>[1]!s_dq_close($B$1,A3549)</f>
+        <v>3704.8186000000001</v>
+      </c>
+      <c r="C3549">
+        <f>[1]!s_dq_close($C$1,A3549)</f>
+        <v>98.959100000000007</v>
+      </c>
+    </row>
+    <row r="3550" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3550" s="1">
+        <v>43320</v>
+      </c>
+      <c r="B3550">
+        <f>[1]!s_dq_close($B$1,A3550)</f>
+        <v>3647.8478</v>
+      </c>
+      <c r="C3550">
+        <f>[1]!s_dq_close($C$1,A3550)</f>
+        <v>98.861500000000007</v>
+      </c>
+    </row>
+    <row r="3551" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3551" s="1">
+        <v>43321</v>
+      </c>
+      <c r="B3551">
+        <f>[1]!s_dq_close($B$1,A3551)</f>
+        <v>3733.9886000000001</v>
+      </c>
+      <c r="C3551">
+        <f>[1]!s_dq_close($C$1,A3551)</f>
+        <v>98.676199999999994</v>
+      </c>
+    </row>
+    <row r="3552" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3552" s="1">
+        <v>43322</v>
+      </c>
+      <c r="B3552">
+        <f>[1]!s_dq_close($B$1,A3552)</f>
+        <v>3749.0848999999998</v>
+      </c>
+      <c r="C3552">
+        <f>[1]!s_dq_close($C$1,A3552)</f>
+        <v>98.607399999999998</v>
+      </c>
+    </row>
+    <row r="3553" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3553" s="1">
+        <v>43325</v>
+      </c>
+      <c r="B3553">
+        <f>[1]!s_dq_close($B$1,A3553)</f>
+        <v>3748.4225000000001</v>
+      </c>
+      <c r="C3553">
+        <f>[1]!s_dq_close($C$1,A3553)</f>
+        <v>98.445800000000006</v>
+      </c>
+    </row>
+    <row r="3554" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3554" s="1">
+        <v>43326</v>
+      </c>
+      <c r="B3554">
+        <f>[1]!s_dq_close($B$1,A3554)</f>
+        <v>3734.0610999999999</v>
+      </c>
+      <c r="C3554">
+        <f>[1]!s_dq_close($C$1,A3554)</f>
+        <v>98.445800000000006</v>
       </c>
     </row>
   </sheetData>
